--- a/Local/Data/Export/DQ-Report_meDIC_StandortName_FHIR_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_meDIC_StandortName_FHIR_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">PatientIdentifikator</t>
   </si>
@@ -30,6 +30,18 @@
     <t xml:space="preserve">dq_msg</t>
   </si>
   <si>
+    <t xml:space="preserve">260123451-Airolo-P-0000251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260123451-Airolo-F-0000259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E84.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Orpha Code.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">260123451-Airolo-P-0000002</t>
   </si>
   <si>
@@ -54,7 +66,7 @@
     <t xml:space="preserve">E03.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.0 - 797 is implausible according to Alpha-ID-SE. </t>
+    <t xml:space="preserve">Ambiguous Orphacoding. ICD10-Orpha combination: E03.0 - 797 is implausible according to Alpha-ID-SE. </t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo-P-0000101</t>
@@ -66,7 +78,7 @@
     <t xml:space="preserve">E03.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 797 is implausible according to Alpha-ID-SE. </t>
+    <t xml:space="preserve">Ambiguous Orphacoding. ICD10-Orpha combination: E03.1 - 797 is implausible according to Alpha-ID-SE. </t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo-P-0000247</t>
@@ -78,9 +90,6 @@
     <t xml:space="preserve">E84.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing AlphaID Code.  Missing Orpha Code.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">E84.1</t>
   </si>
   <si>
@@ -99,7 +108,7 @@
     <t xml:space="preserve">442</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambiguous Coding. ICD10-Orpha combination: E03.1 - 442 is implausible according to Alpha-ID-SE. </t>
+    <t xml:space="preserve">Ambiguous Orphacoding. ICD10-Orpha combination: E03.1 - 442 is implausible according to Alpha-ID-SE. </t>
   </si>
   <si>
     <t xml:space="preserve">260123451-Airolo-P-0000527</t>
@@ -147,9 +156,6 @@
     <t xml:space="preserve">rdCase_dissimilarity_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">conc_with_refValues</t>
-  </si>
-  <si>
     <t xml:space="preserve">rdCase_rel_py_ipat</t>
   </si>
   <si>
@@ -168,6 +174,12 @@
     <t xml:space="preserve">patient_no_py</t>
   </si>
   <si>
+    <t xml:space="preserve">rdPatient_no_py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orphaPatient_no_py</t>
+  </si>
+  <si>
     <t xml:space="preserve">rdCase_no_py</t>
   </si>
   <si>
@@ -186,6 +198,9 @@
     <t xml:space="preserve">incomplete_subject_no_py</t>
   </si>
   <si>
+    <t xml:space="preserve">orphaCoding_no_py</t>
+  </si>
+  <si>
     <t xml:space="preserve">orphaMissing_no_py</t>
   </si>
   <si>
@@ -207,10 +222,19 @@
     <t xml:space="preserve">executionTime_inMin</t>
   </si>
   <si>
+    <t xml:space="preserve">encounterClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateRef</t>
+  </si>
+  <si>
     <t xml:space="preserve">260123451-Airolo</t>
   </si>
   <si>
     <t xml:space="preserve">FHIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosedatum</t>
   </si>
 </sst>
 </file>
@@ -569,25 +593,23 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -604,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -620,88 +642,105 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
       <c r="D10"/>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,102 +758,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B2" t="n">
         <v>2020</v>
@@ -823,7 +874,7 @@
         <v>78.57</v>
       </c>
       <c r="D2" t="n">
-        <v>97.98</v>
+        <v>99.07</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -832,67 +883,67 @@
         <v>66.67</v>
       </c>
       <c r="G2" t="n">
-        <v>63.64</v>
+        <v>58.33</v>
       </c>
       <c r="H2" t="n">
-        <v>98.53</v>
+        <v>99.48</v>
       </c>
       <c r="I2" t="n">
-        <v>76.92</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>81.25</v>
+        <v>89.66</v>
       </c>
       <c r="K2" t="n">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2909</v>
       </c>
       <c r="M2" t="n">
-        <v>1605</v>
+        <v>2508</v>
       </c>
       <c r="N2" t="n">
-        <v>1304</v>
+        <v>1103</v>
       </c>
       <c r="O2" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="P2" t="n">
-        <v>997</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V2" t="n">
+        <v>11</v>
+      </c>
+      <c r="W2" t="n">
         <v>3</v>
       </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
       <c r="X2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
         <v>3</v>
@@ -900,11 +951,21 @@
       <c r="AC2" t="n">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>65</v>
+      <c r="AD2" t="n">
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH2"/>
+      <c r="AI2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
